--- a/sample-data2.xlsx
+++ b/sample-data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TV\Documents\Desktop\drilldown files\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB22D43-94CC-4BF5-B727-7B8D12CC41B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D122D-B09C-4B90-84B7-FD1C35BD7182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C80D6864-A801-4352-A3A0-FFE14A9521EF}"/>
   </bookViews>
@@ -9732,7 +9732,7 @@
     <t>17123</t>
   </si>
   <si>
-    <t>US CountyFIPS</t>
+    <t>CountyFIPS</t>
   </si>
 </sst>
 </file>
